--- a/Visitors_identify/zhongqicount/zhongq.xlsx
+++ b/Visitors_identify/zhongqicount/zhongq.xlsx
@@ -29,29 +29,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -67,23 +54,51 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,14 +113,30 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,37 +146,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,25 +180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,139 +210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,6 +223,144 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,21 +389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -415,6 +400,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,11 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,30 +472,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,148 +506,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1062,17 +1066,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="32.4444444444444" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.8888888888889" customWidth="1" style="1" min="2" max="2"/>
-    <col width="18.3333333333333" customWidth="1" style="1" min="3" max="3"/>
+    <col width="18.3333333333333" customWidth="1" style="2" min="3" max="3"/>
     <col width="19.5555555555556" customWidth="1" style="1" min="4" max="4"/>
     <col width="18" customWidth="1" style="1" min="5" max="5"/>
     <col width="16.3333333333333" customWidth="1" style="1" min="6" max="6"/>
@@ -1090,7 +1094,7 @@
           <t>企业名称</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>站点id</t>
         </is>
@@ -1120,19 +1124,19 @@
       <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0720测试555</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>102292</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>2</v>
+        <v>4472</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
@@ -1145,19 +1149,19 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>0914测试009</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>119536</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>13968</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>381494</v>
+        <v>1248</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>21526</v>
@@ -1170,19 +1174,19 @@
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>0926测试bms</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>119968</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>8</v>
+        <v>891</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>3</v>
@@ -1195,19 +1199,19 @@
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>151032</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>61</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>15965</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1753785</v>
+        <v>665</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>26414</v>
@@ -1220,19 +1224,19 @@
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>33344</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>158640</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>4</v>
+        <v>1488</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>2</v>
@@ -1245,19 +1249,19 @@
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>165493</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -1270,19 +1274,19 @@
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>5000000</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>166805</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>69</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>12</v>
+        <v>764</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>5</v>
@@ -1295,19 +1299,19 @@
       <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>crm专业版</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>170738</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>4</v>
+        <v>1419</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>4</v>
@@ -1320,19 +1324,19 @@
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>tjiyuk</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>177058</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>582</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>41539</v>
+        <v>2736</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1075</v>
@@ -1345,19 +1349,19 @@
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>上海励销信息科技有限公司</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>179199</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>2413</v>
+        <v>909</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>178</v>
@@ -1370,19 +1374,19 @@
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>急急急</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>193694</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>57</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>5</v>
+        <v>899</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>3</v>
@@ -1395,19 +1399,19 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>访客识别试用企业2</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>172,174,210</t>
+          <t>202466</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>59</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>2473</v>
+        <v>843</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>122</v>
@@ -1417,26 +1421,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>bms提单Aimi企业</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>励销【skb+jqr+crm+jxc】</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>207477</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>37,39</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>867</v>
+        <v>1439</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>19</v>
@@ -1446,26 +1446,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>lianglinagn</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>lianglinagnNEW2020091213161087135</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>208701</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>389</v>
+        <v>812</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>33</v>
@@ -1475,26 +1471,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>ljz</t>
-        </is>
-      </c>
+      <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ljzgf-user-test-0001</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>212788</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>51</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>12</v>
@@ -1504,26 +1496,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>fksb+jqr+crm专业版</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>213411</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>1232</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>37305</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1976</v>
@@ -1533,26 +1521,22 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>fksb+jqr+crm旗舰版</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>227851</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>14</v>
@@ -1562,26 +1546,22 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>fksb+skb数据版+crm专业版</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>230304</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>64</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>462</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>28</v>
@@ -1591,26 +1571,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>fksb+skb高级数据版+crm旗舰版</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>235372</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>1189</v>
+        <v>287</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>42</v>
@@ -1620,26 +1596,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>niu_访客识别722</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>246670</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>55</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>3787</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>120</v>
@@ -1649,26 +1621,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SKB+JQR+CRM+FKSB</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>26082</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>58</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>1384</v>
+        <v>4054</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>27</v>
@@ -1678,26 +1646,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>skb高级数据版+jqr+crm旗舰版+fksb</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>35283</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>609</v>
+        <v>1140</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>27</v>
@@ -1707,26 +1671,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>SKBJQRCRMFKSB</t>
-        </is>
-      </c>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>testniu</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>49132</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>2637</v>
+        <v>1183</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>21</v>
@@ -1736,26 +1696,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
-        </is>
-      </c>
+      <c r="A25" s="5" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>0719CE66</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>82474</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>38,42</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>276</v>
+        <v>720</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>6</v>
@@ -1765,26 +1721,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
-        </is>
-      </c>
+      <c r="A26" s="5" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>0719测试励销进销存官网</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>上海策永自动化科技有限公司214261</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>773</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>20</v>
@@ -1794,26 +1746,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
-        </is>
-      </c>
+      <c r="A27" s="5" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>0719测试爱客官网</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>广东光达电气股份有限公司120690</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>63</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>870</v>
+        <v>2399</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>22</v>
@@ -1823,26 +1771,26 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>中企动力信息技术有限公司北京分公司</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>0719测试爱客官网001</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>中企动力访客识别测试账号</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>15,17</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>19</v>
+        <v>15966</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>1372</v>
+        <v>1753785</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>25</v>
@@ -1852,26 +1800,26 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>中企对接BMS</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>0720测试</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>中企对接-BMS-001gf-user-BMS-001</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>20,21</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>695</v>
+        <v>4</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>32</v>
@@ -1881,26 +1829,26 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>中合天华（北京）知识产权代理有限公司</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>0720测试1</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>中合天华（北京）知识产权代理有限公司192147</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>83</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>1455</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>22</v>
@@ -1910,26 +1858,26 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>中山市红捷电子有限公司</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>0720测试bmsik</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>中山市红捷电子有限公司213896</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>103</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>4194</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>202</v>
@@ -1939,26 +1887,26 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>介休市创新实业有限公司</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>0720测试bmsikjxc</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>介休市创新实业有限公司133462</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>81</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>3</v>
@@ -1968,19 +1916,19 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>倍得福机械科技（常州）股份有限公司</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>0720测试bmslxjxc</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>倍得福机械科技（常州）股份有限公司225617</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -1997,26 +1945,26 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>北京中企网动力数码科技有限公司</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>0720测试励销crm</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>中企高呈</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>1054</v>
+        <v>42900</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>51</v>
@@ -2026,26 +1974,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>北京新网数码信息技术有限公司</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>0720测试励销skb</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>北京新网数码信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n"/>
       <c r="D35" s="3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>35</v>
@@ -2055,26 +1999,26 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>南京蓝奥环保设备有限公司</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>0727测试励销云官网</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>南京蓝奥环保设备有限公司230527</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>84</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>839</v>
+        <v>430</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>35</v>
@@ -2084,26 +2028,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>南通励销信息技术有限公司</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>0727测试励销进销存</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>微问家客保中心</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="n"/>
       <c r="D37" s="3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>45</v>
@@ -2115,24 +2055,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>卢珍珍</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>07282222</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>卢珍珍234149</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>309</v>
+        <v>202</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>28</v>
@@ -2142,19 +2082,19 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>嘉兴弘博电气有限公司</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>0728测试BMS进销存</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>嘉兴弘博电气有限公司154518</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -2173,17 +2113,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>四川憨憨豆匠食品有限公司</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>0729测试1</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>四川憨憨豆匠食品有限公司154504</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>77</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2200,26 +2140,26 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>天津市鸿大色母粒有限公司</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>0729测试2</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>天津市鸿大色母粒有限公司218623</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>71,92</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>2262</v>
+        <v>184</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>119</v>
@@ -2231,19 +2171,15 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>安徽泰莱保温科技有限公司</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>0729测试888</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安徽泰莱保温科技有限公司158297</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="n"/>
       <c r="D42" s="3" t="n">
         <v>0</v>
       </c>
@@ -2258,26 +2194,26 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>尚炜尧</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>0729测试励销进销存官网</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>尚炜尧142956</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>1</v>
+        <v>1287</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>13</v>
+        <v>38816</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>2</v>
@@ -2289,24 +2225,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>常州市恒骏电机有限公司</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>0729测试匿名访客</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>常州市恒骏电机有限公司46586</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>72</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>0</v>
@@ -2318,17 +2254,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>常州市耐力工具厂</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>0730测试</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>常州市耐力工具厂140857</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>62</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2347,24 +2283,20 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>广州市俱辉化工有限公司</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>0810测试励销云官网</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>广州市俱辉化工有限公司166065</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="n"/>
       <c r="D46" s="3" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>117</v>
@@ -2376,24 +2308,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>广州悟真健康科技有限公司</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>0810测试励销进销存</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>广州悟真健康科技有限公司20822</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>85</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>0</v>
@@ -2405,24 +2337,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>广西南宁市华星电子衡器有限责任公司</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>0818测试</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>广西南宁市华星电子衡器有限责任公司67092</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>95</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>0</v>
@@ -2432,26 +2364,26 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>广西恩龙机械设备有限公司</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>0818测试app注册</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>广西恩龙机械设备有限公司235524</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>0</v>
@@ -2461,26 +2393,26 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>广西金茂钛业有限公司</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>0818测试bmscrmik</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>广西金茂钛业有限公司223687</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>91</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>0</v>
@@ -2490,26 +2422,26 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>张三</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>0818测试bms励销进销存</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>张三240264</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>712</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>21</v>
@@ -2519,26 +2451,26 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>张翠</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>0818测试bms搜客宝</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>张翠238431</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>1079</v>
+        <v>13</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>39</v>
@@ -2550,24 +2482,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>张翠翠</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>0818测试励销云官网</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>张翠翠238428</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>1</v>
@@ -2579,24 +2511,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>惠州市源立实业有限公司</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>0819线上独立版</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>惠州市源立实业有限公司168912</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>94,100</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>1325</v>
+        <v>128</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>48</v>
@@ -2608,24 +2540,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>惠州广诚会计师事务所</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>0824测试励销云官网</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>惠州广诚会计师事务所217846</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>101,102</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
         <v>6</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>8</v>
@@ -2637,24 +2569,20 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>成都秋叶原商贸有限公司</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>0826测试</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>成都秋叶原商贸有限公司50299</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="n"/>
       <c r="D56" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>3</v>
@@ -2666,24 +2594,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>扬州正艺试验机械有限公司</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>0826测试bmsjqr</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>扬州正艺试验机械有限公司210979</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>87</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>8</v>
@@ -2695,24 +2623,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>方鑫</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>0826测试lxcrm</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>方鑫220243</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>49</t>
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>6</v>
+        <v>883</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>3</v>
@@ -2724,24 +2652,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>本溪光远环境工程有限公司</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>0826测试励销云官网001</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>本溪光远环境工程有限公司248281</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>93</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>0</v>
@@ -2753,24 +2681,24 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>朱盼恒</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>0826测试爱客官网001</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>朱盼恒131915</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>24,27,32</t>
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0</v>
+        <v>2464</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>0</v>
@@ -2780,26 +2708,26 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
-        <is>
-          <t>test企业</t>
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>林纯钢</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>0831测试励销进销存</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>林纯钢220108</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>31,33</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>0</v>
@@ -2811,24 +2739,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>江苏达伟金属制品有限公司</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>0831测试励销进销存官网</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>江苏达伟金属制品有限公司239886</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>74</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>699</v>
+        <v>29</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>23</v>
@@ -2840,17 +2768,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>沈阳世锐喷砂机械设备有限公司</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>0831测试爱客官网</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>沈阳世锐喷砂机械设备有限公司161594</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>98</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
@@ -2869,17 +2797,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>河北天佑体育设施有限公司</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>0914测试励销官网</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>河北天佑体育设施有限公司157064</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>66</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
@@ -2898,17 +2826,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>河北恒金泰环保科技有限公司</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>0914测试励销进销存</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>河北恒金泰环保科技有限公司129107</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>97</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -2927,17 +2855,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>河北永达电机制造有限公司</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>0916测励销云官网</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>河北永达电机制造有限公司230585</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
@@ -2956,24 +2884,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>0916测试app</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>测试240995</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>0</v>
@@ -2985,24 +2913,24 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>测试切换企业</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>0916测试bms匿名访客</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>访客识别-0722001</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F68" s="3" t="n">
         <v>0</v>
@@ -3014,24 +2942,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>深圳市意控科技有限公司</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>0916测试bms机器人</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>深圳市意控科技有限公司52747</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>67</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>377</v>
+        <v>2323</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>11</v>
@@ -3043,24 +2971,20 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>深圳市维爱普电子有限公司</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>0916测试bms爱客进销存</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>深圳市维爱普电子有限公司218535</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="n"/>
       <c r="D70" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3" t="n">
         <v>17</v>
@@ -3072,17 +2996,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>深圳智航精密科技有限公司</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>0916测试bms进销存</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>深圳智航精密科技有限公司228053</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>82</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3101,24 +3025,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>演示或测试专用企业法定名称</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>0916测试励销进销存官网</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>上海励销信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>14,30</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="3" t="n">
         <v>0</v>
@@ -3130,24 +3054,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>演示或测试专用企业法定名称</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>0916测试爱客官网001</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>励销云【搜客宝+机器人+CRM】名称</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>7,9,11,12,19</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>0</v>
+        <v>14326</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>0</v>
+        <v>388596</v>
       </c>
       <c r="F73" s="3" t="n">
         <v>0</v>
@@ -3159,24 +3083,20 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>石家庄东方紫铜浮雕工艺品有限公司</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>0917测试bms励销crm</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>石家庄东方紫铜浮雕工艺品有限公司44218</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="n"/>
       <c r="D74" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F74" s="3" t="n">
         <v>3</v>
@@ -3188,24 +3108,24 @@
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>石家庄森雨不锈钢制品有限公司</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>0917测试bms搜客宝</t>
-        </is>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>石家庄森雨不锈钢制品有限公司237932</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>79</t>
         </is>
       </c>
       <c r="D75" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>4</v>
@@ -3217,24 +3137,24 @@
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>苏州江科新能源科技有限公司</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>0923回归测试励销官网</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>苏州江科新能源科技有限公司174969</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>88</t>
         </is>
       </c>
       <c r="D76" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>8</v>
@@ -3246,19 +3166,15 @@
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>衡水福桥淀粉有限公司</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>0923测进销存官网</t>
-        </is>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>衡水福桥淀粉有限公司180341</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="n"/>
       <c r="D77" s="0" t="n">
         <v>0</v>
       </c>
@@ -3275,24 +3191,24 @@
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>谭美琴</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>0926测试bmscrm</t>
-        </is>
-      </c>
-      <c r="C78" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>谭美琴162931</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>41</t>
         </is>
       </c>
       <c r="D78" s="0" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>55</v>
+        <v>2571</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>9</v>
@@ -3304,24 +3220,24 @@
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>贺州兴塑新材料科技有限公司</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>0926测试bms搜客宝</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>贺州兴塑新材料科技有限公司219226</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>0</v>
@@ -3333,24 +3249,24 @@
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>贾晓宁</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>0926测试励销官网</t>
-        </is>
-      </c>
-      <c r="C80" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>贾晓宁138093</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>0</v>
@@ -3362,24 +3278,24 @@
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>test企业</t>
+          <t>辽宁同泽减震器有限公司</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>0926测试励销进销存官网</t>
-        </is>
-      </c>
-      <c r="C81" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>辽宁同泽减震器有限公司92099</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>56</t>
         </is>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>0</v>
@@ -3391,1951 +3307,2318 @@
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
+          <t>通州区石港镇越洋机械厂</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>通州区石港镇越洋机械厂220589</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>邢台力天轴承制造有限公司</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>邢台力天轴承制造有限公司165377</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>长沙山乙建筑装饰设计有限公司</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>长沙山乙建筑装饰设计有限公司214398</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>陶扬</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>陶扬220251</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>28,53</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>黑山县万程膨润土有限责任公司</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>黑山县万程膨润土有限责任公司202227</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>360试用</t>
-        </is>
-      </c>
-      <c r="C82" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>360试用企业</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="n"/>
+      <c r="D87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>360试用009</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>360试用企业测试</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="n"/>
+      <c r="D88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>360试用企业</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>360试用测试</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="n"/>
+      <c r="D89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>360试用企业测试</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>360试用测试</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="n"/>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="n"/>
+      <c r="D92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>50000000</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="n"/>
+      <c r="D93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>500000000</t>
+        </is>
+      </c>
+      <c r="C94" s="6" t="n"/>
+      <c r="D94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>50000000</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>rthut67u</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="n"/>
+      <c r="D95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>500000000</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>励销产品测试</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>rthut67u</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>吧尽力</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="n"/>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>励销产品测试</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>啊啊啊</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>吧尽力</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>我听见了</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>啊啊啊</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>新注册</t>
+        </is>
+      </c>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>我听见了</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="n"/>
+      <c r="D101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>新注册</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>溜了溜了</t>
+        </is>
+      </c>
+      <c r="C102" s="6" t="n"/>
+      <c r="D102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>聚聚会</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="n"/>
+      <c r="D103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>溜了溜了</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>访客识别独立版测试</t>
+        </is>
+      </c>
+      <c r="C104" s="6" t="n"/>
+      <c r="D104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>聚聚会</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>郑州延博实验室设备销售行</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
         <is>
           <t>test企业</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>访客识别独立版测试</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>test企业</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>郑州延博实验室设备销售行</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>test企业</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="B106" s="0" t="inlineStr">
         <is>
           <t>顶你</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="C106" s="6" t="n"/>
+      <c r="D106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B107" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210908001gf-user-test-ldd210908001</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C107" s="6" t="n"/>
+      <c r="D107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B108" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210908002gf-user-test-ldd210908002</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="C108" s="6" t="n"/>
+      <c r="D108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B109" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210908003gf-user-test-ldd210908003</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="C109" s="6" t="n"/>
+      <c r="D109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B110" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210909001gf-user-test-ldd210909001</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C110" s="6" t="n"/>
+      <c r="D110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B111" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210909002gf-user-test-ldd210909002</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="C111" s="6" t="n"/>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B112" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210909003gf-user-test-ldd210909003</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="C112" s="6" t="n"/>
+      <c r="D112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B113" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210914001gf-user-test-ldd210914001</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="C113" s="6" t="n"/>
+      <c r="D113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B114" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210914002gf-user-test-ldd210914002</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="C114" s="6" t="n"/>
+      <c r="D114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B115" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210916001gf-user-test-ldd210916001</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="C115" s="6" t="n"/>
+      <c r="D115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B116" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210922001gf-user-test-ldd210922001</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="C116" s="6" t="n"/>
+      <c r="D116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B117" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210922002gf-user-test-ldd210922002</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="C117" s="6" t="n"/>
+      <c r="D117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B118" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210922003gf-user-test-ldd210922003</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="C118" s="6" t="n"/>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B119" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210922004gf-user-test-ldd210922004</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="C119" s="6" t="n"/>
+      <c r="D119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B120" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210922005gf-user-test-ldd210922005</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="C120" s="6" t="n"/>
+      <c r="D120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B121" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210922006gf-user-test-ldd210922006</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="C121" s="6" t="n"/>
+      <c r="D121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B122" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210924001gf-user-test-ldd210924001</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="C122" s="6" t="n"/>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
         <is>
           <t>ZQBMS</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B123" s="0" t="inlineStr">
         <is>
           <t>ZQ-BMS210924002gf-user-test-ldd210924002</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="C123" s="6" t="n"/>
+      <c r="D123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
         <is>
           <t>上海BMS团队</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B124" s="0" t="inlineStr">
         <is>
           <t>励销CRM+SKB+JQR</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="C124" s="6" t="n"/>
+      <c r="D124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
         <is>
           <t>上海微问家信息技术有限公司</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B125" s="0" t="inlineStr">
         <is>
           <t>上海微问家信息技术有限公司</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
         <is>
           <t>上海微问家信息技术有限公司</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B126" s="0" t="inlineStr">
         <is>
           <t>爱客中企</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
         <is>
           <t>324</t>
         </is>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="D126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
         <is>
           <t>上海微问家信息技术有限公司</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B127" s="0" t="inlineStr">
         <is>
           <t>访客测试企业</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>100,211,314,161,212</t>
         </is>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D127" s="0" t="n">
+        <v>1608</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>26988</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
         <is>
           <t>世纪公园</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B128" s="0" t="inlineStr">
         <is>
           <t>世纪公园gf-m-test-0001</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="C128" s="6" t="n"/>
+      <c r="D128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
         <is>
           <t>世纪公园</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B129" s="0" t="inlineStr">
         <is>
           <t>世纪公园gf-m-test-001</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="C129" s="6" t="n"/>
+      <c r="D129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
         <is>
           <t>中企动力科技股份有限公司</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B130" s="0" t="inlineStr">
         <is>
           <t>励销中企</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="C130" s="6" t="n"/>
+      <c r="D130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
         <is>
           <t>中企对接stagingldd</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B131" s="0" t="inlineStr">
         <is>
           <t>中企对接-staging-ldd007gf-user-staging-ldd007</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>317,297</t>
         </is>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D131" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B132" s="0" t="inlineStr">
         <is>
           <t>中企对接-test001gf-user-test-001</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C132" s="6" t="inlineStr">
         <is>
           <t>295,296</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B133" s="0" t="inlineStr">
         <is>
           <t>中企对接-test002gf-user-test-002</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>291,292,266,267,293</t>
         </is>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D133" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B134" s="0" t="inlineStr">
         <is>
           <t>中企对接-test003gf-user-test-003</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="C134" s="6" t="n"/>
+      <c r="D134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B135" s="0" t="inlineStr">
         <is>
           <t>中企对接-test003gf-user-test-0093</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="C135" s="6" t="n"/>
+      <c r="D135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B136" s="0" t="inlineStr">
         <is>
           <t>中企对接-test003gf-user-test-0093test001</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="C136" s="6" t="n"/>
+      <c r="D136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B137" s="0" t="inlineStr">
         <is>
           <t>中企对接-test003gf-user-test-00test0098</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="C137" s="6" t="n"/>
+      <c r="D137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B138" s="0" t="inlineStr">
         <is>
           <t>中企对接-test003gf-user-test-testing001</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="C138" s="6" t="n"/>
+      <c r="D138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B139" s="0" t="inlineStr">
         <is>
           <t>中企对接-test004gf-user-test-004</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="C139" s="6" t="n"/>
+      <c r="D139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B140" s="0" t="inlineStr">
         <is>
           <t>中企对接-test009gf-user-test-009</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="C140" s="6" t="n"/>
+      <c r="D140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
         <is>
           <t>中企对接test</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B141" s="0" t="inlineStr">
         <is>
           <t>中企对接企业</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="C141" s="6" t="n"/>
+      <c r="D141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
         <is>
           <t>中企对接testldd</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B142" s="0" t="inlineStr">
         <is>
           <t>中企对接-test-ldd001gf-user-test-ldd001</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="C142" s="6" t="n"/>
+      <c r="D142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
         <is>
           <t>中企对接testldd</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B143" s="0" t="inlineStr">
         <is>
           <t>中企对接-test-ldd008gf-user-test-ldd008</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="C143" s="6" t="n"/>
+      <c r="D143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
         <is>
           <t>中企对接testuser</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B144" s="0" t="inlineStr">
         <is>
           <t>中企对接-testuser002gf-user-test-sxy004</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="C144" s="6" t="n"/>
+      <c r="D144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
         <is>
           <t>中企试用版</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B145" s="0" t="inlineStr">
         <is>
           <t>中企试用版001GF-trial-001</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="C145" s="6" t="n"/>
+      <c r="D145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
         <is>
           <t>交通银行股份有限公司上海陆家嘴支行</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B146" s="0" t="inlineStr">
         <is>
           <t>陆家嘴软件园fksb</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="C146" s="6" t="n"/>
+      <c r="D146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
         <is>
           <t>仅开通访客识别</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B147" s="0" t="inlineStr">
         <is>
           <t>fksb+skb高级数据版</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="C147" s="6" t="n"/>
+      <c r="D147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
         <is>
           <t>仅开通访客识别</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B148" s="0" t="inlineStr">
         <is>
           <t>仅开通访客识别</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C148" s="6" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
         <is>
           <t>仅开通访客识别</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B149" s="0" t="inlineStr">
         <is>
           <t>访客识别基础版</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="C149" s="6" t="n"/>
+      <c r="D149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
         <is>
           <t>六五六</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B150" s="0" t="inlineStr">
         <is>
           <t>六五六1700089163</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C150" s="6" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
         <is>
           <t>励销crm独立版</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B151" s="0" t="inlineStr">
         <is>
           <t>励销crm独立版-210609004wwjDShQhqBDB5umsLcmb</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="C151" s="6" t="n"/>
+      <c r="D151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
         <is>
           <t>只开通搜客宝</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B152" s="0" t="inlineStr">
         <is>
           <t>fksb+crm专业版+jqr+skb数据版</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="C152" s="6" t="n"/>
+      <c r="D152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
         <is>
           <t>只开通搜客宝</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B153" s="0" t="inlineStr">
         <is>
           <t>fksb+skb营销版+crm专业版</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="C153" s="6" t="n"/>
+      <c r="D153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
         <is>
           <t>只开通搜客宝</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B154" s="0" t="inlineStr">
         <is>
           <t>skb营销版+fksb+jqr</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="C154" s="6" t="n"/>
+      <c r="D154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
         <is>
           <t>只有</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B155" s="0" t="inlineStr">
         <is>
           <t>crmjxc打通的企业0</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="C155" s="6" t="n"/>
+      <c r="D155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
         <is>
           <t>客户老带新测试测试测试</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B156" s="0" t="inlineStr">
         <is>
           <t>搜客宝独立版-210722001</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="C156" s="6" t="n"/>
+      <c r="D156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
         <is>
           <t>尹小雨</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B157" s="0" t="inlineStr">
         <is>
           <t>0917测试</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="C157" s="6" t="n"/>
+      <c r="D157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
         <is>
           <t>张三</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B158" s="0" t="inlineStr">
         <is>
           <t>张三NEW2021061617330216928</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="C158" s="6" t="n"/>
+      <c r="D158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
         <is>
           <t>张妮妮</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B159" s="0" t="inlineStr">
         <is>
           <t>张妮妮NEW2021042118115079919</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="C159" s="6" t="n"/>
+      <c r="D159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
         <is>
           <t>张思</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B160" s="0" t="inlineStr">
         <is>
           <t>张思1700089304</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C160" s="6" t="inlineStr">
         <is>
           <t>318,319,320,321</t>
         </is>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="D160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
         <is>
           <t>张老板</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B161" s="0" t="inlineStr">
         <is>
           <t>张老板NEW2021040113505131023</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="C161" s="6" t="n"/>
+      <c r="D161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
         <is>
           <t>我的测试企业</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B162" s="0" t="inlineStr">
         <is>
           <t>我的测试企业</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="C162" s="6" t="n"/>
+      <c r="D162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
         <is>
           <t>搜客宝和机器人</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B163" s="0" t="inlineStr">
         <is>
           <t>jaso访客识别</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="C163" s="6" t="n"/>
+      <c r="D163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
         <is>
           <t>新开企微助手</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B164" s="0" t="inlineStr">
         <is>
           <t>新开企微助手</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="C164" s="6" t="n"/>
+      <c r="D164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
         <is>
           <t>朱盼恒</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B165" s="0" t="inlineStr">
         <is>
           <t>朱盼恒1700089256</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C165" s="6" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="D165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
         <is>
           <t>朱盼恒</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B166" s="0" t="inlineStr">
         <is>
           <t>朱盼恒1700089394</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C166" s="6" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="D166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
         <is>
           <t>李一三</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B167" s="0" t="inlineStr">
         <is>
           <t>李一三NEW2021061514031741823</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="C167" s="6" t="n"/>
+      <c r="D167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B168" s="0" t="inlineStr">
         <is>
           <t>李四NEW2021061617113180095</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C168" s="6" t="inlineStr">
         <is>
           <t>310</t>
         </is>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="D168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
         <is>
           <t>李思敏</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B169" s="0" t="inlineStr">
         <is>
           <t>李思敏1700089168</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="C169" s="6" t="n"/>
+      <c r="D169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
         <is>
           <t>沈阳安心环卫有限公司</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B170" s="0" t="inlineStr">
         <is>
           <t>fksb+crm专业版+jqr+skb营销版</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="C170" s="6" t="n"/>
+      <c r="D170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
         <is>
           <t>测试test</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B171" s="0" t="inlineStr">
         <is>
           <t>测试test50926</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="C171" s="6" t="n"/>
+      <c r="D171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
         <is>
           <t>测试中企样式</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B172" s="0" t="inlineStr">
         <is>
           <t>测试0805企业</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="C172" s="6" t="n"/>
+      <c r="D172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
         <is>
           <t>测试企业徐丽华</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B173" s="0" t="inlineStr">
         <is>
           <t>只开通访客识别用来退单</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="C173" s="6" t="n"/>
+      <c r="D173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
         <is>
           <t>测试企业徐丽华</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B174" s="0" t="inlineStr">
         <is>
           <t>测试企业0728</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="C174" s="6" t="n"/>
+      <c r="D174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
         <is>
           <t>测试企业徐丽华</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B175" s="0" t="inlineStr">
         <is>
           <t>访客识别试用企业</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
         <is>
           <t>207,170,171,173,191</t>
         </is>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="D175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
         <is>
           <t>测试提单确认</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B176" s="0" t="inlineStr">
         <is>
           <t>励销crm独立版-210908003</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="C176" s="6" t="n"/>
+      <c r="D176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
         <is>
           <t>测试提单确认</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B177" s="0" t="inlineStr">
         <is>
           <t>单SKB</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="C177" s="6" t="n"/>
+      <c r="D177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
         <is>
           <t>测试老带新显示</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B178" s="0" t="inlineStr">
         <is>
           <t>fksb+crm专业版</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="C178" s="6" t="n"/>
+      <c r="D178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
         <is>
           <t>测试老带新显示</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B179" s="0" t="inlineStr">
         <is>
           <t>fksb+skb营销版</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="C179" s="6" t="n"/>
+      <c r="D179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
         <is>
           <t>测试老带新显示</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B180" s="0" t="inlineStr">
         <is>
           <t>fksb+skb营销版+crm旗舰版</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="C180" s="6" t="n"/>
+      <c r="D180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
         <is>
           <t>测试老带新显示</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B181" s="0" t="inlineStr">
         <is>
           <t>jqr+fksb</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="C181" s="6" t="n"/>
+      <c r="D181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
         <is>
           <t>测试老带新显示</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B182" s="0" t="inlineStr">
         <is>
           <t>skb数据版+jqr+fksb</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="C182" s="6" t="n"/>
+      <c r="D182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
         <is>
           <t>测试老带新显示</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B183" s="0" t="inlineStr">
         <is>
           <t>skb营销版+crm旗舰版+jqr+fksb</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="C183" s="6" t="n"/>
+      <c r="D183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
         <is>
           <t>王五</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B184" s="0" t="inlineStr">
         <is>
           <t>王五NEW2021061615060699482</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="C184" s="6" t="n"/>
+      <c r="D184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
         <is>
           <t>访客访客</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B185" s="0" t="inlineStr">
         <is>
           <t>单访客识别，试用</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C185" s="6" t="inlineStr">
         <is>
           <t>214,215,218</t>
         </is>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="D185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
         <is>
           <t>访客访客</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B186" s="0" t="inlineStr">
         <is>
           <t>访客访客</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="C186" s="6" t="n"/>
+      <c r="D186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
         <is>
           <t>访客识别</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B187" s="0" t="inlineStr">
         <is>
           <t>访客识别-210719001</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="C187" s="6" t="n"/>
+      <c r="D187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B188" s="0" t="inlineStr">
         <is>
           <t>访客识别-210715001</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C188" s="6" t="inlineStr">
         <is>
           <t>168,169,144,145</t>
         </is>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="D188" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B189" s="0" t="inlineStr">
         <is>
           <t>访客识别-210715002</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="C189" s="6" t="n"/>
+      <c r="D189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B190" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716001</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="C190" s="6" t="n"/>
+      <c r="D190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B191" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716002</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="C191" s="6" t="n"/>
+      <c r="D191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B192" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716003</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="C192" s="6" t="n"/>
+      <c r="D192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B193" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716004</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="C193" s="6" t="n"/>
+      <c r="D193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B194" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716005</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="C194" s="6" t="n"/>
+      <c r="D194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B195" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716006</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="C195" s="6" t="n"/>
+      <c r="D195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B196" s="0" t="inlineStr">
         <is>
           <t>访客识别-210716007</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="C196" s="6" t="n"/>
+      <c r="D196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B197" s="0" t="inlineStr">
         <is>
           <t>识别识别</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="C197" s="6" t="n"/>
+      <c r="D197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
         <is>
           <t>非高级数据版skb</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B198" s="0" t="inlineStr">
         <is>
           <t>爱客访客识别</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C198" s="6" t="inlineStr">
         <is>
           <t>256,276</t>
         </is>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
